--- a/bench/benchmarks_pc-highend.xlsx
+++ b/bench/benchmarks_pc-highend.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,10 +398,10 @@
         <v>50x50</v>
       </c>
       <c r="B2" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>50x50</v>
       </c>
       <c r="B3" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>50x50</v>
       </c>
       <c r="B4" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C4">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>50x50</v>
       </c>
       <c r="B5" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C5">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>50x50</v>
       </c>
       <c r="B6" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -453,21 +453,21 @@
         <v>50x50</v>
       </c>
       <c r="B7" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>100x100</v>
+        <v>50x50</v>
       </c>
       <c r="B8" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor C</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>100x100</v>
       </c>
       <c r="B9" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>100x100</v>
       </c>
       <c r="B10" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>100x100</v>
       </c>
       <c r="B11" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
       <c r="C11">
-        <v>220</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -508,10 +508,10 @@
         <v>100x100</v>
       </c>
       <c r="B12" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -519,32 +519,32 @@
         <v>100x100</v>
       </c>
       <c r="B13" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
       <c r="C13">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B14" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor B</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B15" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +552,10 @@
         <v>200x200</v>
       </c>
       <c r="B16" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -563,10 +563,10 @@
         <v>200x200</v>
       </c>
       <c r="B17" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C17">
-        <v>405</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -574,10 +574,10 @@
         <v>200x200</v>
       </c>
       <c r="B18" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
       <c r="C18">
-        <v>314</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -585,43 +585,43 @@
         <v>200x200</v>
       </c>
       <c r="B19" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C19">
-        <v>1140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B20" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor A</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B21" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
       <c r="C21">
-        <v>110</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B22" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor C</v>
       </c>
       <c r="C22">
-        <v>391</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="23">
@@ -629,10 +629,10 @@
         <v>500x500</v>
       </c>
       <c r="B23" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C23">
-        <v>1405</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -640,10 +640,10 @@
         <v>500x500</v>
       </c>
       <c r="B24" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C24">
-        <v>980</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -651,54 +651,54 @@
         <v>500x500</v>
       </c>
       <c r="B25" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
       </c>
       <c r="C25">
-        <v>20360</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1000x1000</v>
+        <v>500x500</v>
       </c>
       <c r="B26" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C26">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>1000x1000</v>
+        <v>500x500</v>
       </c>
       <c r="B27" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
       <c r="C27">
-        <v>140</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>1000x1000</v>
+        <v>500x500</v>
       </c>
       <c r="B28" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
       <c r="C28">
-        <v>802</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>1000x1000</v>
+        <v>500x500</v>
       </c>
       <c r="B29" t="str">
-        <v>Competitor A</v>
+        <v>Competitor C</v>
       </c>
       <c r="C29">
-        <v>5400</v>
+        <v>20360</v>
       </c>
     </row>
     <row r="30">
@@ -706,10 +706,10 @@
         <v>1000x1000</v>
       </c>
       <c r="B30" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C30">
-        <v>2900</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -717,59 +717,62 @@
         <v>1000x1000</v>
       </c>
       <c r="B31" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C31">
+        <v>190</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B32" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor D</v>
       </c>
       <c r="C32">
-        <v>250</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B33" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C33">
-        <v>265</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B34" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
       <c r="C34">
-        <v>2950</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B35" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
+      </c>
+      <c r="C35">
+        <v>2900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B36" t="str">
-        <v>Competitor B</v>
-      </c>
-      <c r="C36">
-        <v>11500</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="37">
@@ -777,45 +780,48 @@
         <v>2000x2000</v>
       </c>
       <c r="B37" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C37">
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B38" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C38">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B39" t="str">
         <v>Competitor D</v>
       </c>
       <c r="C39">
-        <v>465</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B40" t="str">
         <v>LightningChart v.3.0</v>
       </c>
       <c r="C40">
-        <v>7180</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B41" t="str">
         <v>Competitor A</v>
@@ -823,15 +829,18 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B42" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C42">
+        <v>11500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B43" t="str">
         <v>Competitor C</v>
@@ -839,327 +848,348 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B44" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C44">
-        <v>510</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B45" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C45">
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B46" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C46">
-        <v>14950</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B47" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C47">
+        <v>7180</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B48" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B49" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>6000x6000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B50" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C50">
-        <v>880</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B51" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B52" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C52">
+        <v>510</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B53" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B54" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C54">
+        <v>14950</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B55" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>8000x8000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B56" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C56">
-        <v>1630</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>8000x8000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B57" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B58" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C58">
+        <v>200</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B59" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C59">
+        <v>880</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B60" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B61" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>10000x10000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B62" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C62">
-        <v>2180</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>10000x10000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B63" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>10000x10000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B64" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B65" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C65">
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B66" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C66">
+        <v>1630</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B67" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>12000x12000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B68" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C68">
-        <v>3340</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>12000x12000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B69" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>12000x12000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B70" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>12000x12000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B71" t="str">
-        <v>Competitor A</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>12000x12000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B72" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C72">
+        <v>690</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>12000x12000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B73" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C73">
+        <v>2180</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>15000x15000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B74" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C74">
-        <v>4260</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>15000x15000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B75" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>15000x15000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B76" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>15000x15000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B77" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>15000x15000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B78" t="str">
-        <v>Competitor B</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>15000x15000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B79" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C79">
+        <v>790</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B80" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C80">
-        <v>7200</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B81" t="str">
         <v>Competitor D</v>
@@ -1167,7 +1197,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B82" t="str">
         <v>LightningChart v.3.0</v>
@@ -1175,7 +1205,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B83" t="str">
         <v>Competitor A</v>
@@ -1183,7 +1213,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B84" t="str">
         <v>Competitor B</v>
@@ -1191,7 +1221,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>20000x20000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B85" t="str">
         <v>Competitor C</v>
@@ -1199,167 +1229,324 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B86" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C86">
-        <v>11440</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B87" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C87">
+        <v>4260</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B88" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B89" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B90" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>25000x25000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B91" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>30000x30000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B92" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C92">
-        <v>17200</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>30000x30000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B93" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C93">
+        <v>2500</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>30000x30000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B94" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C94">
+        <v>7200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>30000x30000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B95" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>30000x30000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B96" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>30000x30000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B97" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>35000x35000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B98" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C98">
-        <v>28400</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>35000x35000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B99" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>35000x35000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B100" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C100">
+        <v>3900</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>35000x35000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B101" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C101">
+        <v>11440</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>35000x35000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B102" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
+        <v>25000x25000</v>
+      </c>
+      <c r="B103" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>25000x25000</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>25000x25000</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>25000x25000</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B107" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C107">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B108" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C108">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B110" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>30000x30000</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
         <v>35000x35000</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B114" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C114">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B115" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C115">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B117" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>35000x35000</v>
+      </c>
+      <c r="B120" t="str">
         <v>Competitor C</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C103"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C120"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1383,13 +1570,13 @@
         <v>25x25</v>
       </c>
       <c r="B2" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C2">
         <v>164</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1397,13 +1584,13 @@
         <v>25x25</v>
       </c>
       <c r="B3" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C3">
         <v>164</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1411,13 +1598,13 @@
         <v>25x25</v>
       </c>
       <c r="B4" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C4">
         <v>164</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1425,13 +1612,13 @@
         <v>25x25</v>
       </c>
       <c r="B5" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1439,10 +1626,10 @@
         <v>25x25</v>
       </c>
       <c r="B6" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>99</v>
@@ -1453,10 +1640,10 @@
         <v>25x25</v>
       </c>
       <c r="B7" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
       <c r="C7">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>99</v>
@@ -1464,16 +1651,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>50x50</v>
+        <v>25x25</v>
       </c>
       <c r="B8" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor C</v>
       </c>
       <c r="C8">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1481,13 +1668,13 @@
         <v>50x50</v>
       </c>
       <c r="B9" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C9">
         <v>164</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1495,13 +1682,13 @@
         <v>50x50</v>
       </c>
       <c r="B10" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C10">
         <v>164</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1509,13 +1696,13 @@
         <v>50x50</v>
       </c>
       <c r="B11" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1523,13 +1710,13 @@
         <v>50x50</v>
       </c>
       <c r="B12" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1537,10 +1724,10 @@
         <v>50x50</v>
       </c>
       <c r="B13" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>99</v>
@@ -1548,30 +1735,30 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>100x100</v>
+        <v>50x50</v>
       </c>
       <c r="B14" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor B</v>
       </c>
       <c r="C14">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>100x100</v>
+        <v>50x50</v>
       </c>
       <c r="B15" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1579,13 +1766,13 @@
         <v>100x100</v>
       </c>
       <c r="B16" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1593,13 +1780,13 @@
         <v>100x100</v>
       </c>
       <c r="B17" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -1607,13 +1794,13 @@
         <v>100x100</v>
       </c>
       <c r="B18" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1621,49 +1808,49 @@
         <v>100x100</v>
       </c>
       <c r="B19" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C19">
+        <v>163</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B20" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor A</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B21" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B22" t="str">
-        <v>LightningChart v.3.0</v>
-      </c>
-      <c r="C22">
-        <v>108</v>
-      </c>
-      <c r="D22">
-        <v>85</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="23">
@@ -1671,13 +1858,13 @@
         <v>200x200</v>
       </c>
       <c r="B23" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1685,13 +1872,13 @@
         <v>200x200</v>
       </c>
       <c r="B24" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1699,46 +1886,52 @@
         <v>200x200</v>
       </c>
       <c r="B25" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C25">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B26" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C26">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D26">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B27" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B28" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -1746,16 +1939,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B29" t="str">
-        <v>Competitor A</v>
-      </c>
-      <c r="C29">
-        <v>0.4</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="30">
@@ -1763,13 +1950,13 @@
         <v>500x500</v>
       </c>
       <c r="B30" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -1777,18 +1964,24 @@
         <v>500x500</v>
       </c>
       <c r="B31" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C31">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B32" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor D</v>
       </c>
       <c r="C32">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -1796,27 +1989,27 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B33" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B34" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1824,13 +2017,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B35" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -1838,16 +2031,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B36" t="str">
-        <v>Competitor B</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="37">
@@ -1855,18 +2042,24 @@
         <v>750x750</v>
       </c>
       <c r="B37" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C37">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B38" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D38">
         <v>100</v>
@@ -1874,13 +2067,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B39" t="str">
         <v>Competitor D</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -1888,13 +2081,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B40" t="str">
         <v>LightningChart v.3.0</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>100</v>
@@ -1902,21 +2095,27 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B41" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B42" t="str">
         <v>Competitor B</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
         <v>100</v>
@@ -1924,7 +2123,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B43" t="str">
         <v>Competitor C</v>
@@ -1932,27 +2131,27 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B44" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B45" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>100</v>
@@ -1960,13 +2159,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B46" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -1974,51 +2173,57 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B47" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B48" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B49" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
+      </c>
+      <c r="C49">
+        <v>0.2</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>3000x3000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B50" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B51" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D51">
         <v>100</v>
@@ -2026,13 +2231,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B52" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C52">
-        <v>0.7</v>
+        <v>23</v>
       </c>
       <c r="D52">
         <v>100</v>
@@ -2040,59 +2245,65 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B53" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B54" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B55" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>4000x4000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B56" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>100</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>4000x4000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B57" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B58" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C58">
-        <v>0.3</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <v>100</v>
@@ -2100,97 +2311,115 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B59" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B60" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B61" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C61">
+        <v>0.7</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B62" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>100</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B63" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B64" t="str">
-        <v>LightningChart v.3.0</v>
-      </c>
-      <c r="C64">
-        <v>0.2</v>
-      </c>
-      <c r="D64">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B65" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C65">
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B66" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B67" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B68" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D68">
         <v>100</v>
@@ -2198,107 +2427,125 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B69" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B70" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B71" t="str">
-        <v>Competitor A</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>6000x6000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B72" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>6000x6000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B73" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B74" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>100</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B75" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B76" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B77" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B78" t="str">
-        <v>Competitor B</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>7000x7000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B79" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B80" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C80">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>100</v>
@@ -2306,7 +2553,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B81" t="str">
         <v>Competitor D</v>
@@ -2314,7 +2561,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B82" t="str">
         <v>LightningChart v.3.0</v>
@@ -2322,7 +2569,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B83" t="str">
         <v>Competitor A</v>
@@ -2330,7 +2577,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B84" t="str">
         <v>Competitor B</v>
@@ -2338,7 +2585,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B85" t="str">
         <v>Competitor C</v>
@@ -2346,13 +2593,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B86" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C86">
-        <v>1.2</v>
+        <v>9.9</v>
       </c>
       <c r="D86">
         <v>100</v>
@@ -2360,108 +2607,520 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B87" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B88" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B89" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B90" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B91" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>10000x10000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B92" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B93" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C93">
+        <v>7.4</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B94" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C94">
+        <v>1.4</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B95" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B96" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
+        <v>8000x8000</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>8000x8000</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>8000x8000</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B100" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B101" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C101">
+        <v>1.2</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B103" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>9000x9000</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
         <v>10000x10000</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B107" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C107">
+        <v>4.9</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B108" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B110" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>10000x10000</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B114" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C114">
+        <v>4.1</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B115" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B117" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>11000x110000</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B121" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C121">
+        <v>3.4</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B122" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B124" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>120000x120000</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B128" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B129" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B131" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>130000x130000</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B135" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C135">
+        <v>2.5</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B136" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B138" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>140000x140000</v>
+      </c>
+      <c r="B141" t="str">
         <v>Competitor C</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2485,13 +3144,13 @@
         <v>25x25</v>
       </c>
       <c r="B2" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C2">
         <v>165</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2499,13 +3158,13 @@
         <v>25x25</v>
       </c>
       <c r="B3" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -2513,13 +3172,13 @@
         <v>25x25</v>
       </c>
       <c r="B4" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -2527,13 +3186,13 @@
         <v>25x25</v>
       </c>
       <c r="B5" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2541,13 +3200,13 @@
         <v>25x25</v>
       </c>
       <c r="B6" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -2555,27 +3214,27 @@
         <v>25x25</v>
       </c>
       <c r="B7" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>50x50</v>
+        <v>25x25</v>
       </c>
       <c r="B8" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor C</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2583,13 +3242,13 @@
         <v>50x50</v>
       </c>
       <c r="B9" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2597,13 +3256,13 @@
         <v>50x50</v>
       </c>
       <c r="B10" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C10">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -2611,13 +3270,13 @@
         <v>50x50</v>
       </c>
       <c r="B11" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -2625,13 +3284,13 @@
         <v>50x50</v>
       </c>
       <c r="B12" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2639,41 +3298,41 @@
         <v>50x50</v>
       </c>
       <c r="B13" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>100x100</v>
+        <v>50x50</v>
       </c>
       <c r="B14" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor B</v>
       </c>
       <c r="C14">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>100x100</v>
+        <v>50x50</v>
       </c>
       <c r="B15" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2681,13 +3340,13 @@
         <v>100x100</v>
       </c>
       <c r="B16" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +3354,13 @@
         <v>100x100</v>
       </c>
       <c r="B17" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -2709,13 +3368,13 @@
         <v>100x100</v>
       </c>
       <c r="B18" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -2723,49 +3382,49 @@
         <v>100x100</v>
       </c>
       <c r="B19" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C19">
+        <v>163</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B20" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor A</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B21" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>200x200</v>
+        <v>100x100</v>
       </c>
       <c r="B22" t="str">
-        <v>LightningChart v.3.0</v>
-      </c>
-      <c r="C22">
-        <v>163</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="23">
@@ -2773,13 +3432,13 @@
         <v>200x200</v>
       </c>
       <c r="B23" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -2787,13 +3446,13 @@
         <v>200x200</v>
       </c>
       <c r="B24" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2801,32 +3460,38 @@
         <v>200x200</v>
       </c>
       <c r="B25" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C25">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B26" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C26">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B27" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2834,30 +3499,24 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B28" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
       <c r="C28">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>500x500</v>
+        <v>200x200</v>
       </c>
       <c r="B29" t="str">
-        <v>Competitor A</v>
-      </c>
-      <c r="C29">
-        <v>0.4</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="30">
@@ -2865,13 +3524,13 @@
         <v>500x500</v>
       </c>
       <c r="B30" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -2879,46 +3538,52 @@
         <v>500x500</v>
       </c>
       <c r="B31" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C31">
+        <v>164</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B32" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>Competitor D</v>
       </c>
       <c r="C32">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B33" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B34" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2926,24 +3591,24 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B35" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>750x750</v>
+        <v>500x500</v>
       </c>
       <c r="B36" t="str">
-        <v>Competitor B</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="37">
@@ -2951,12 +3616,18 @@
         <v>750x750</v>
       </c>
       <c r="B37" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C37">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B38" t="str">
         <v>LightningChart v.3.1</v>
@@ -2965,18 +3636,18 @@
         <v>165</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B39" t="str">
         <v>Competitor D</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -2984,13 +3655,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B40" t="str">
         <v>LightningChart v.3.0</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>100</v>
@@ -2998,7 +3669,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B41" t="str">
         <v>Competitor A</v>
@@ -3006,15 +3677,21 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B42" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>1000x1000</v>
+        <v>750x750</v>
       </c>
       <c r="B43" t="str">
         <v>Competitor C</v>
@@ -3022,41 +3699,41 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B44" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C44">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B45" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B46" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -3064,339 +3741,381 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B47" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B48" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2000x2000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B49" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>3000x3000</v>
+        <v>1000x1000</v>
       </c>
       <c r="B50" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C50">
-        <v>165</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B51" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B52" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B53" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B54" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>3000x3000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B55" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>4000x4000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B56" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C56">
-        <v>163</v>
-      </c>
-      <c r="D56">
-        <v>42</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>4000x4000</v>
+        <v>2000x2000</v>
       </c>
       <c r="B57" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B58" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C58">
-        <v>0.6</v>
+        <v>165</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B59" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C59">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B60" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>4000x4000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B61" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B62" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C62">
-        <v>163</v>
-      </c>
-      <c r="D62">
-        <v>53</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B63" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>5000x5000</v>
+        <v>3000x3000</v>
       </c>
       <c r="B64" t="str">
-        <v>LightningChart v.3.0</v>
-      </c>
-      <c r="C64">
-        <v>0.3</v>
-      </c>
-      <c r="D64">
-        <v>100</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B65" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C65">
+        <v>165</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B66" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C66">
+        <v>163</v>
+      </c>
+      <c r="D66">
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>5000x5000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B67" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B68" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.0</v>
       </c>
       <c r="C68">
-        <v>163</v>
+        <v>0.6</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B69" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B70" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>6000x6000</v>
+        <v>4000x4000</v>
       </c>
       <c r="B71" t="str">
-        <v>Competitor A</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>6000x6000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B72" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C72">
+        <v>165</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>6000x6000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B73" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C73">
+        <v>163</v>
+      </c>
+      <c r="D73">
+        <v>53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B74" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C74">
-        <v>163</v>
-      </c>
-      <c r="D74">
-        <v>61</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B75" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C75">
+        <v>0.3</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B76" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B77" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>7000x7000</v>
+        <v>5000x5000</v>
       </c>
       <c r="B78" t="str">
-        <v>Competitor B</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>7000x7000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B79" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C79">
+        <v>165</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B80" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C80">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B81" t="str">
         <v>Competitor D</v>
@@ -3404,7 +4123,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B82" t="str">
         <v>LightningChart v.3.0</v>
@@ -3412,7 +4131,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B83" t="str">
         <v>Competitor A</v>
@@ -3420,7 +4139,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B84" t="str">
         <v>Competitor B</v>
@@ -3428,7 +4147,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>8000x8000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B85" t="str">
         <v>Competitor C</v>
@@ -3436,331 +4155,551 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B86" t="str">
-        <v>LightningChart v.3.1</v>
+        <v>LightningChart v.3.3</v>
       </c>
       <c r="C86">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D86">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B87" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C87">
+        <v>163</v>
+      </c>
+      <c r="D87">
+        <v>61</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B88" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B89" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B90" t="str">
-        <v>Competitor B</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>9000x9000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B91" t="str">
-        <v>Competitor C</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>10000x10000</v>
+        <v>7000x7000</v>
       </c>
       <c r="B92" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C92">
-        <v>164</v>
-      </c>
-      <c r="D92">
-        <v>30</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B93" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C93">
+        <v>165</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B94" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C94">
+        <v>162</v>
+      </c>
+      <c r="D94">
+        <v>73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B95" t="str">
-        <v>Competitor A</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B96" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>10000x10000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B97" t="str">
-        <v>Competitor C</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>11000x11000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B98" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C98">
-        <v>145</v>
-      </c>
-      <c r="D98">
-        <v>32</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>11000x11000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B99" t="str">
-        <v>Competitor D</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>11000x11000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B100" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C100">
+        <v>164</v>
+      </c>
+      <c r="D100">
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>11000x11000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B101" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C101">
+        <v>161</v>
+      </c>
+      <c r="D101">
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>11000x11000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B102" t="str">
-        <v>Competitor B</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>11000x11000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B103" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>12000x12000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B104" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C104">
-        <v>125</v>
-      </c>
-      <c r="D104">
-        <v>38</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>12000x12000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B105" t="str">
-        <v>Competitor D</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>12000x12000</v>
+        <v>9000x9000</v>
       </c>
       <c r="B106" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>12000x12000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B107" t="str">
-        <v>Competitor A</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C107">
+        <v>164</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>12000x12000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B108" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C108">
+        <v>164</v>
+      </c>
+      <c r="D108">
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>12000x12000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B109" t="str">
-        <v>Competitor C</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>13000x13000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B110" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C110">
-        <v>120</v>
-      </c>
-      <c r="D110">
-        <v>44</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>13000x13000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B111" t="str">
-        <v>Competitor D</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>13000x13000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B112" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>13000x13000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B113" t="str">
-        <v>Competitor A</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>13000x13000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B114" t="str">
-        <v>Competitor B</v>
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C114">
+        <v>164</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>13000x13000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B115" t="str">
-        <v>Competitor C</v>
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C115">
+        <v>145</v>
+      </c>
+      <c r="D115">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>14000x14000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B116" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C116">
-        <v>115</v>
-      </c>
-      <c r="D116">
-        <v>46</v>
+        <v>Competitor D</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>14000x14000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B117" t="str">
-        <v>Competitor D</v>
+        <v>LightningChart v.3.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>14000x14000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B118" t="str">
-        <v>LightningChart v.3.0</v>
+        <v>Competitor A</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>14000x14000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B119" t="str">
-        <v>Competitor A</v>
+        <v>Competitor B</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>14000x14000</v>
+        <v>11000x11000</v>
       </c>
       <c r="B120" t="str">
-        <v>Competitor B</v>
+        <v>Competitor C</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B121" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C121">
+        <v>164</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B122" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C122">
+        <v>125</v>
+      </c>
+      <c r="D122">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B124" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>12000x12000</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B128" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C128">
+        <v>164</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B129" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C129">
+        <v>120</v>
+      </c>
+      <c r="D129">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B131" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>13000x13000</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Competitor C</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
         <v>14000x14000</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B135" t="str">
+        <v>LightningChart v.3.3</v>
+      </c>
+      <c r="C135">
+        <v>164</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B136" t="str">
+        <v>LightningChart v.3.1</v>
+      </c>
+      <c r="C136">
+        <v>115</v>
+      </c>
+      <c r="D136">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Competitor D</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B138" t="str">
+        <v>LightningChart v.3.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Competitor A</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Competitor B</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>14000x14000</v>
+      </c>
+      <c r="B141" t="str">
         <v>Competitor C</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/bench/benchmarks_pc-highend.xlsx
+++ b/bench/benchmarks_pc-highend.xlsx
@@ -3120,7 +3120,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3426,6 +3426,12 @@
       <c r="B22" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C22" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D22" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -3518,6 +3524,12 @@
       <c r="B29" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C29" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D29" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -3610,6 +3622,12 @@
       <c r="B36" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C36" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D36" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -3674,6 +3692,12 @@
       <c r="B41" t="str">
         <v>Competitor A</v>
       </c>
+      <c r="C41" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D41" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -3696,6 +3720,12 @@
       <c r="B43" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C43" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D43" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -3760,6 +3790,12 @@
       <c r="B48" t="str">
         <v>Competitor A</v>
       </c>
+      <c r="C48" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D48" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -3768,6 +3804,12 @@
       <c r="B49" t="str">
         <v>Competitor B</v>
       </c>
+      <c r="C49" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D49" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -3776,6 +3818,12 @@
       <c r="B50" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C50" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D50" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -3840,6 +3888,12 @@
       <c r="B55" t="str">
         <v>Competitor A</v>
       </c>
+      <c r="C55" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D55" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -3848,6 +3902,12 @@
       <c r="B56" t="str">
         <v>Competitor B</v>
       </c>
+      <c r="C56" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D56" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -3856,6 +3916,12 @@
       <c r="B57" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C57" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D57" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -3920,6 +3986,12 @@
       <c r="B62" t="str">
         <v>Competitor A</v>
       </c>
+      <c r="C62" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D62" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -3928,6 +4000,12 @@
       <c r="B63" t="str">
         <v>Competitor B</v>
       </c>
+      <c r="C63" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D63" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -3936,6 +4014,12 @@
       <c r="B64" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C64" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D64" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -3972,6 +4056,12 @@
       <c r="B67" t="str">
         <v>Competitor D</v>
       </c>
+      <c r="C67" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D67" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3994,6 +4084,12 @@
       <c r="B69" t="str">
         <v>Competitor A</v>
       </c>
+      <c r="C69" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D69" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -4002,6 +4098,12 @@
       <c r="B70" t="str">
         <v>Competitor B</v>
       </c>
+      <c r="C70" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D70" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -4010,10 +4112,16 @@
       <c r="B71" t="str">
         <v>Competitor C</v>
       </c>
+      <c r="C71" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D71" t="str">
+        <v>FAIL</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B72" t="str">
         <v>LightningChart v.3.3</v>
@@ -4022,12 +4130,12 @@
         <v>165</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B73" t="str">
         <v>LightningChart v.3.1</v>
@@ -4036,58 +4144,82 @@
         <v>163</v>
       </c>
       <c r="D73">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B74" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C74" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D74" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B75" t="str">
         <v>LightningChart v.3.0</v>
       </c>
-      <c r="C75">
-        <v>0.3</v>
-      </c>
-      <c r="D75">
-        <v>100</v>
+      <c r="C75" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D75" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B76" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C76" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D76" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B77" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C77" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D77" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>5000x5000</v>
+        <v>6000x6000</v>
       </c>
       <c r="B78" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C78" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D78" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B79" t="str">
         <v>LightningChart v.3.3</v>
@@ -4101,197 +4233,287 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B80" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C80">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B81" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C81" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D81" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B82" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C82" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D82" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B83" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C83" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D83" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B84" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C84" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D84" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>6000x6000</v>
+        <v>8000x8000</v>
       </c>
       <c r="B85" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C85" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D85" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B86" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C86">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B87" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C87">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D87">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B88" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C88" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D88" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B89" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C89" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D89" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B90" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C90" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D90" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B91" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C91" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D91" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>7000x7000</v>
+        <v>10000x10000</v>
       </c>
       <c r="B92" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C92" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D92" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B93" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C93">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D93">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B94" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C94">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B95" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C95" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D95" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B96" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C96" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D96" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B97" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C97" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D97" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B98" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C98" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D98" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>8000x8000</v>
+        <v>12000x12000</v>
       </c>
       <c r="B99" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C99" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D99" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B100" t="str">
         <v>LightningChart v.3.3</v>
@@ -4299,407 +4521,489 @@
       <c r="C100">
         <v>164</v>
       </c>
-      <c r="D100">
-        <v>13</v>
+      <c r="D100" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B101" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C101">
-        <v>161</v>
-      </c>
-      <c r="D101">
-        <v>78</v>
+        <v>130</v>
+      </c>
+      <c r="D101" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B102" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C102" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D102" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B103" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C103" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D103" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B104" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C104" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D104" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B105" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C105" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D105" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>9000x9000</v>
+        <v>15000x15000</v>
       </c>
       <c r="B106" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C106" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D106" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B107" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C107">
-        <v>164</v>
-      </c>
-      <c r="D107">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="D107" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B108" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C108">
-        <v>164</v>
-      </c>
-      <c r="D108">
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="D108" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B109" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C109" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D109" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B110" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C110" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D110" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B111" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C111" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D111" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B112" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C112" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D112" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>10000x10000</v>
+        <v>20000x20000</v>
       </c>
       <c r="B113" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C113" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D113" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B114" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C114">
-        <v>164</v>
-      </c>
-      <c r="D114">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="D114" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B115" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C115">
-        <v>145</v>
-      </c>
-      <c r="D115">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="D115" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B116" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C116" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D116" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B117" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C117" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D117" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B118" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C118" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D118" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B119" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C119" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D119" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>11000x11000</v>
+        <v>25000x25000</v>
       </c>
       <c r="B120" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C120" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D120" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B121" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C121">
-        <v>164</v>
-      </c>
-      <c r="D121">
-        <v>13</v>
+        <v>152</v>
+      </c>
+      <c r="D121" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B122" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C122">
-        <v>125</v>
-      </c>
-      <c r="D122">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="D122" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B123" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C123" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D123" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B124" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C124" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D124" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B125" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C125" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D125" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B126" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C126" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D126" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>12000x12000</v>
+        <v>30000x30000</v>
       </c>
       <c r="B127" t="str">
         <v>Competitor C</v>
+      </c>
+      <c r="C127" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D127" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B128" t="str">
         <v>LightningChart v.3.3</v>
       </c>
       <c r="C128">
-        <v>164</v>
-      </c>
-      <c r="D128">
-        <v>13</v>
+        <v>140</v>
+      </c>
+      <c r="D128" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B129" t="str">
         <v>LightningChart v.3.1</v>
       </c>
       <c r="C129">
-        <v>120</v>
-      </c>
-      <c r="D129">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D129" t="str">
+        <v>MISSING</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B130" t="str">
         <v>Competitor D</v>
+      </c>
+      <c r="C130" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D130" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B131" t="str">
         <v>LightningChart v.3.0</v>
+      </c>
+      <c r="C131" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D131" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B132" t="str">
         <v>Competitor A</v>
+      </c>
+      <c r="C132" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D132" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B133" t="str">
         <v>Competitor B</v>
+      </c>
+      <c r="C133" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D133" t="str">
+        <v>FAIL</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>13000x13000</v>
+        <v>35000x35000</v>
       </c>
       <c r="B134" t="str">
         <v>Competitor C</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B135" t="str">
-        <v>LightningChart v.3.3</v>
-      </c>
-      <c r="C135">
-        <v>164</v>
-      </c>
-      <c r="D135">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B136" t="str">
-        <v>LightningChart v.3.1</v>
-      </c>
-      <c r="C136">
-        <v>115</v>
-      </c>
-      <c r="D136">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B137" t="str">
-        <v>Competitor D</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B138" t="str">
-        <v>LightningChart v.3.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B139" t="str">
-        <v>Competitor A</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B140" t="str">
-        <v>Competitor B</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>14000x14000</v>
-      </c>
-      <c r="B141" t="str">
-        <v>Competitor C</v>
+      <c r="C134" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="D134" t="str">
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D134"/>
   </ignoredErrors>
 </worksheet>
 </file>